--- a/data/trans_dic/P78C3_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78C3_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>19,98%</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>22,94%</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>26,61%</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 91,89</t>
+          <t>0,0; 93,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -689,14 +689,14 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 73,37</t>
+          <t>0,0; 73,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>65,74%</t>
+          <t>65,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>57,48%</t>
+          <t>56,82%</t>
         </is>
       </c>
     </row>
@@ -734,19 +734,19 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,78; 90,79</t>
+          <t>27,74; 90,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,69; 82,32</t>
+          <t>26,77; 82,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>52,43%</t>
+          <t>50,79%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>36,89%</t>
         </is>
       </c>
     </row>
@@ -784,19 +784,19 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,15</t>
+          <t>0,0; 80,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,18; 74,31</t>
+          <t>10,63; 74,56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>62,94%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>69,96%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>22,85; 100</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 100,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>47,87%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>60,3%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,91; 47,57</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,48; 79,02</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,24; 54,6</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20,23%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>59,29%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>36,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5,79; 45,03</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38,65; 79,21</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>20,59; 52,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
